--- a/biology/Botanique/Vatica_lobata/Vatica_lobata.xlsx
+++ b/biology/Botanique/Vatica_lobata/Vatica_lobata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Vatica lobata est un arbre sempervirent endémique de Malaisie péninsulaire appartenant à la famille des dipterocarpaceae.
 </t>
@@ -511,14 +523,16 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Nom commun: Resak Paya.
 Hauteur maximale: Peut atteindre jusqu’à 20 mètres.
 Feuillage: Feuilles vertes, obovales à elliptiques-lancéolées, disposées en alternance, mesurant environ 7 à 24 cm de long et 2 à 9,5 cm de large.
 Fleurs: Fleurs blanches à crème portées sur une inflorescence en panicule axillaire ou terminale pouvant atteindre 5 cm de long.
 Fruit: Fruit est une noix ovoïde brune.
-Statut de conservation: Classé comme En danger (EN) selon la liste rouge de l’UICN[2],[3].</t>
+Statut de conservation: Classé comme En danger (EN) selon la liste rouge de l’UICN,.</t>
         </is>
       </c>
     </row>
@@ -546,7 +560,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Endémique aux forêts à dipterocarps de la péninsule malaise.
 </t>
@@ -577,7 +593,9 @@
           <t>Préservation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Espèce menacée par la déforestation et l'exploitation forestière.
 </t>
